--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_EControl.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_EControl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EC126" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -291,13 +291,19 @@
     <t>BT</t>
   </si>
   <si>
-    <t>Lỗi</t>
-  </si>
-  <si>
     <t>Khách báo không sửa</t>
   </si>
   <si>
     <t>15/12/2020</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
   </si>
 </sst>
 </file>
@@ -839,28 +845,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,16 +872,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,43 +1242,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1317,58 +1323,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="100" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1393,24 +1399,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1420,7 +1426,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>72</v>
@@ -1433,7 +1439,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="60" t="s">
         <v>74</v>
@@ -1445,10 +1451,12 @@
         <v>75</v>
       </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="108" t="s">
-        <v>85</v>
+      <c r="O6" s="91" t="s">
+        <v>88</v>
       </c>
       <c r="P6" s="53" t="s">
         <v>82</v>
@@ -1460,7 +1468,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1475,7 +1483,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>72</v>
@@ -1498,7 +1506,9 @@
       <c r="L7" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53" t="s">
         <v>84</v>
@@ -1513,7 +1523,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1542,7 +1552,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1581,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1600,7 +1610,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1639,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1668,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1689,7 +1699,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1728,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1747,7 +1757,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1786,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1829,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="107"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1"/>
@@ -2546,7 +2556,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,10 +3020,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -3042,8 +3052,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3069,8 +3079,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3187,7 +3197,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,6 +4367,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4367,16 +4387,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4387,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4419,43 +4429,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -4500,58 +4510,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="100" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4576,24 +4586,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4603,7 +4613,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>51</v>
@@ -4616,7 +4626,7 @@
         <v>66</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="53" t="s">
@@ -4626,10 +4636,12 @@
       <c r="L6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P6" s="53" t="s">
         <v>82</v>
@@ -4641,7 +4653,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4656,7 +4668,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>51</v>
@@ -4669,7 +4681,7 @@
         <v>66</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="71" t="s">
         <v>74</v>
@@ -4681,10 +4693,12 @@
         <v>79</v>
       </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N7" s="55"/>
       <c r="O7" s="53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P7" s="53" t="s">
         <v>82</v>
@@ -4696,7 +4710,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4725,7 +4739,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4754,7 +4768,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4783,7 +4797,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4812,7 +4826,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4841,7 +4855,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4872,7 +4886,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4901,7 +4915,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4930,7 +4944,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4959,7 +4973,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5729,7 +5743,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6193,10 +6207,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6225,8 +6239,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6252,8 +6266,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6370,7 +6384,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7540,6 +7554,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7550,16 +7574,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7570,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7602,43 +7616,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7683,58 +7697,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="100" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7759,50 +7773,76 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="52">
+        <v>866104028031352</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
+      <c r="O6" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="R6" s="51"/>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7813,27 +7853,51 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="52">
+        <v>866102021725566</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7842,27 +7906,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="52">
+        <v>864161026900907</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="51"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7871,27 +7959,53 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="B9" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7920,7 +8034,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7949,7 +8063,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7978,7 +8092,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8009,7 +8123,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8038,7 +8152,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8067,7 +8181,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8096,7 +8210,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8215,7 +8329,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8866,7 +8980,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9207,7 +9321,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9330,12 +9444,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9362,8 +9476,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9389,8 +9503,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -9507,7 +9621,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10677,6 +10791,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10687,16 +10811,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
